--- a/soccer/bundesliga.xlsx
+++ b/soccer/bundesliga.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvray\OneDrive\Documents\Web Development\NBA TEAMS\nba_socmed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/soccer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E955DF-9EB5-48E9-AA95-5886800F1243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{41E955DF-9EB5-48E9-AA95-5886800F1243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{348001FC-8BCE-4BF8-9ADD-32353F351B39}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3285" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feb 2024 bundesliga" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -803,15 +803,15 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -887,7 +887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -922,7 +922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -957,7 +957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -992,7 +992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>132</v>
       </c>
